--- a/result/10-4_vicuna7_naive-optim_500/eval/scoring_template.xlsx
+++ b/result/10-4_vicuna7_naive-optim_500/eval/scoring_template.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="204">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="497" uniqueCount="315">
   <si>
     <t>rules</t>
   </si>
@@ -305,235 +305,463 @@
     <t>reasoned_answer</t>
   </si>
   <si>
+    <t>2336569.jpg</t>
+  </si>
+  <si>
+    <t>2321389.jpg</t>
+  </si>
+  <si>
+    <t>2394235.jpg</t>
+  </si>
+  <si>
+    <t>2335961.jpg</t>
+  </si>
+  <si>
+    <t>2408290.jpg</t>
+  </si>
+  <si>
+    <t>2341916.jpg</t>
+  </si>
+  <si>
+    <t>2337356.jpg</t>
+  </si>
+  <si>
+    <t>2347921.jpg</t>
+  </si>
+  <si>
+    <t>2353575.jpg</t>
+  </si>
+  <si>
+    <t>2342596.jpg</t>
+  </si>
+  <si>
+    <t>1159351.jpg</t>
+  </si>
+  <si>
+    <t>2328035.jpg</t>
+  </si>
+  <si>
+    <t>2380438.jpg</t>
+  </si>
+  <si>
+    <t>2406064.jpg</t>
+  </si>
+  <si>
+    <t>2384295.jpg</t>
+  </si>
+  <si>
+    <t>2395429.jpg</t>
+  </si>
+  <si>
     <t>2321990.jpg</t>
   </si>
   <si>
-    <t>2408290.jpg</t>
-  </si>
-  <si>
-    <t>1159351.jpg</t>
-  </si>
-  <si>
-    <t>2335961.jpg</t>
-  </si>
-  <si>
-    <t>2342596.jpg</t>
+    <t>2340260.jpg</t>
+  </si>
+  <si>
+    <t>2373085.jpg</t>
+  </si>
+  <si>
+    <t>2356501.jpg</t>
+  </si>
+  <si>
+    <t>2366289.jpg</t>
+  </si>
+  <si>
+    <t>2417032.jpg</t>
+  </si>
+  <si>
+    <t>2360023.jpg</t>
+  </si>
+  <si>
+    <t>2328856.jpg</t>
+  </si>
+  <si>
+    <t>2387659.jpg</t>
+  </si>
+  <si>
+    <t>2417850.jpg</t>
+  </si>
+  <si>
+    <t>4418.jpg</t>
+  </si>
+  <si>
+    <t>2403286.jpg</t>
+  </si>
+  <si>
+    <t>2371480.jpg</t>
+  </si>
+  <si>
+    <t>2404643.jpg</t>
+  </si>
+  <si>
+    <t>2345458.jpg</t>
+  </si>
+  <si>
+    <t>2387492.jpg</t>
+  </si>
+  <si>
+    <t>2378845.jpg</t>
   </si>
   <si>
     <t>2338295.jpg</t>
   </si>
   <si>
-    <t>2356501.jpg</t>
+    <t>2349840.jpg</t>
   </si>
   <si>
     <t>2361750.jpg</t>
   </si>
   <si>
-    <t>2384295.jpg</t>
-  </si>
-  <si>
-    <t>2378845.jpg</t>
-  </si>
-  <si>
-    <t>2347921.jpg</t>
-  </si>
-  <si>
-    <t>2404643.jpg</t>
-  </si>
-  <si>
-    <t>2366289.jpg</t>
-  </si>
-  <si>
-    <t>2417850.jpg</t>
-  </si>
-  <si>
-    <t>2360023.jpg</t>
-  </si>
-  <si>
-    <t>2341916.jpg</t>
-  </si>
-  <si>
-    <t>2380438.jpg</t>
-  </si>
-  <si>
-    <t>2353575.jpg</t>
-  </si>
-  <si>
-    <t>2349840.jpg</t>
-  </si>
-  <si>
-    <t>2403286.jpg</t>
+    <t>2329535.jpg</t>
+  </si>
+  <si>
+    <t>2320752.jpg</t>
+  </si>
+  <si>
+    <t>2381621.jpg</t>
+  </si>
+  <si>
+    <t>2377994.jpg</t>
+  </si>
+  <si>
+    <t>2402695.jpg</t>
+  </si>
+  <si>
+    <t>2369698.jpg</t>
+  </si>
+  <si>
+    <t>2324496.jpg</t>
+  </si>
+  <si>
+    <t>What is the purpose of the traffic lights in the image?</t>
+  </si>
+  <si>
+    <t>Is the man snowboarding down a hill or on a ramp?</t>
+  </si>
+  <si>
+    <t>What is the path made of?</t>
+  </si>
+  <si>
+    <t>What is the purpose of the police officers riding horses?</t>
+  </si>
+  <si>
+    <t>Are the police officers on horseback?</t>
+  </si>
+  <si>
+    <t>Who is the rider of the motorcycle?</t>
+  </si>
+  <si>
+    <t>What is the dish being prepared in the image?</t>
+  </si>
+  <si>
+    <t>Short Answer:</t>
+  </si>
+  <si>
+    <t>Who is the boy eating pizza with?</t>
+  </si>
+  <si>
+    <t>Are the people playing with a frisbee?</t>
+  </si>
+  <si>
+    <t>Are the girls wearing jackets?</t>
+  </si>
+  <si>
+    <t>Are the men playing a video game?</t>
+  </si>
+  <si>
+    <t>How many plants are in the image?</t>
+  </si>
+  <si>
+    <t>What is the occasion for the two men posing with pizza?</t>
+  </si>
+  <si>
+    <t>What is the boy holding in his mouth?</t>
+  </si>
+  <si>
+    <t>What is the elephant doing in the water?</t>
+  </si>
+  <si>
+    <t>What is the woman wearing?</t>
+  </si>
+  <si>
+    <t>What is the purpose of the rope barrier in the image?</t>
+  </si>
+  <si>
+    <t>What is the purpose of the bus parked in front of the church?</t>
+  </si>
+  <si>
+    <t>What is the purpose of the umbrellas on the beach?</t>
+  </si>
+  <si>
+    <t>What is the person doing in the image?</t>
+  </si>
+  <si>
+    <t>Is the train moving or stationary?</t>
+  </si>
+  <si>
+    <t>How many wheels does the motorcycle have?</t>
+  </si>
+  <si>
+    <t>What is the man wearing?</t>
+  </si>
+  <si>
+    <t>How many slices of pizza are on the plate?</t>
+  </si>
+  <si>
+    <t>Is the woman wearing a hat?</t>
+  </si>
+  <si>
+    <t>What is the purpose of the beakers in the image?</t>
+  </si>
+  <si>
+    <t>How many types of food are on the plate?</t>
+  </si>
+  <si>
+    <t>Who prepared the meal?</t>
+  </si>
+  <si>
+    <t>How many steps are there in the image?</t>
+  </si>
+  <si>
+    <t>What is the purpose of the fire hydrant in front of the Chicago Police car?</t>
+  </si>
+  <si>
+    <t>Who is responsible for the maintenance of the bathroom?</t>
+  </si>
+  <si>
+    <t>What is the color of the umbrella the girls are holding?</t>
+  </si>
+  <si>
+    <t>What is the purpose of the giraffes walking on the dirt road?</t>
+  </si>
+  <si>
+    <t>What is the significance of the horns on the cow's head?</t>
+  </si>
+  <si>
+    <t>How many traffic lights are hanging from the wire?</t>
+  </si>
+  <si>
+    <t>What is the woman holding in her hand?</t>
+  </si>
+  <si>
+    <t>How many flowers are in the vase?</t>
   </si>
   <si>
     <t>How many objects are in the image?</t>
   </si>
   <si>
-    <t>Who is the rider of the motorcycle?</t>
-  </si>
-  <si>
-    <t>Are the men playing a video game?</t>
-  </si>
-  <si>
-    <t>What is the purpose of the police officers riding horses?</t>
-  </si>
-  <si>
-    <t>What is the color of the umbrella the girls are holding?</t>
+    <t>How many elephants are in the water?</t>
+  </si>
+  <si>
+    <t>Is the man wearing a tie?</t>
+  </si>
+  <si>
+    <t>How many "Chicago Police" vehicles are parked on the street?</t>
+  </si>
+  <si>
+    <t>What is the purpose of the sink and toilet in the image?</t>
+  </si>
+  <si>
+    <t>What is the purpose of the clock on the building?</t>
+  </si>
+  <si>
+    <t>What is the context of the image?</t>
+  </si>
+  <si>
+    <t>What is the most common vegetable in the image?</t>
+  </si>
+  <si>
+    <t>How many tables are on the beach?</t>
+  </si>
+  <si>
+    <t>Are the giraffes in a zoo or in the wild?</t>
+  </si>
+  <si>
+    <t>What is the color of the vase?</t>
+  </si>
+  <si>
+    <t>Is the man wearing a helmet while skateboarding?</t>
+  </si>
+  <si>
+    <t>Is the toilet paper holder on the wall?</t>
+  </si>
+  <si>
+    <t>What time is it on the clock?</t>
   </si>
   <si>
     <t>Who are the giraffes in the image?</t>
   </si>
   <si>
-    <t>Short Answer:</t>
-  </si>
-  <si>
-    <t>What is the woman holding in her hand?</t>
-  </si>
-  <si>
-    <t>What is the purpose of the rope barrier in the image?</t>
-  </si>
-  <si>
-    <t>What is the significance of the horns on the cow's head?</t>
-  </si>
-  <si>
-    <t>What is the woman wearing?</t>
-  </si>
-  <si>
-    <t>What is the boy holding in his mouth?</t>
-  </si>
-  <si>
-    <t>What is the purpose of the sink and toilet in the image?</t>
-  </si>
-  <si>
-    <t>How many slices of pizza are on the plate?</t>
-  </si>
-  <si>
-    <t>Is the man wearing a tie?</t>
-  </si>
-  <si>
-    <t>What is the purpose of the umbrellas on the beach?</t>
-  </si>
-  <si>
-    <t>Is the train moving or stationary?</t>
-  </si>
-  <si>
-    <t>What is the dish being prepared in the image?</t>
-  </si>
-  <si>
-    <t>Are the people playing with a frisbee?</t>
-  </si>
-  <si>
-    <t>Are the police officers on horseback?</t>
-  </si>
-  <si>
-    <t>What is the occasion for the two men posing with pizza?</t>
-  </si>
-  <si>
-    <t>How many steps are there in the image?</t>
+    <t>How many people are in the image?</t>
+  </si>
+  <si>
+    <t>What is the man holding in his hands?</t>
   </si>
   <si>
     <t>What is the dish on the plate?</t>
   </si>
   <si>
-    <t>Is the woman wearing a hat?</t>
-  </si>
-  <si>
     <t>How many horns does the cow have?</t>
   </si>
   <si>
     <t>Is the boy wearing a shirt?</t>
   </si>
   <si>
-    <t>How many tables are on the beach?</t>
-  </si>
-  <si>
-    <t>Who is responsible for the maintenance of the bathroom?</t>
-  </si>
-  <si>
-    <t>How many wheels does the motorcycle have?</t>
-  </si>
-  <si>
-    <t>Who is the boy eating pizza with?</t>
-  </si>
-  <si>
-    <t>Are the girls wearing jackets?</t>
-  </si>
-  <si>
-    <t>What is the purpose of the giraffes walking on the dirt road?</t>
+    <t>How many buses are parked in the lot?</t>
+  </si>
+  <si>
+    <t>What is the dish made of?</t>
   </si>
   <si>
     <t>What is the significance of the horns on the yak's head?</t>
   </si>
   <si>
-    <t>What is the man wearing?</t>
-  </si>
-  <si>
     <t>What is the purpose of the train in the image?</t>
   </si>
   <si>
-    <t>How many types of food are on the plate?</t>
+    <t>How many cats are sleeping on the bed?</t>
+  </si>
+  <si>
+    <t>The traffic lights in the image are hanging from a wire and are displaying green and yellow lights. They are likely used to control the flow of traffic at an intersection or a specific point on the road.</t>
+  </si>
+  <si>
+    <t>The man is snowboarding down a hill.</t>
+  </si>
+  <si>
+    <t>Dirt</t>
+  </si>
+  <si>
+    <t>The police officers are patrolling the area and maintaining public safety.</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>A man</t>
+  </si>
+  <si>
+    <t>Rice and fish</t>
+  </si>
+  <si>
+    <t>Reason:</t>
+  </si>
+  <si>
+    <t>Boy</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>The two men are posing with pizza to celebrate a special occasion or simply to enjoy a meal together.</t>
+  </si>
+  <si>
+    <t>A toothbrush</t>
+  </si>
+  <si>
+    <t>The elephant is playing with a stick in the water.</t>
+  </si>
+  <si>
+    <t>A red shirt and a hat.</t>
+  </si>
+  <si>
+    <t>To prevent unauthorized access to the exhibit.</t>
+  </si>
+  <si>
+    <t>The bus is parked in front of the church to pick up or drop off passengers.</t>
+  </si>
+  <si>
+    <t>The umbrellas on the beach are used to provide shade and protection from the sun for beachgoers.</t>
+  </si>
+  <si>
+    <t>The person is skiing down a snowy mountain.</t>
+  </si>
+  <si>
+    <t>The train is stationary.</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>The man is wearing a helmet, a vest, and knee pads.</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>The beakers in the image are used for holding and measuring liquids in a laboratory setting.</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>Chef</t>
+  </si>
+  <si>
+    <t>There are 10 steps in the image.</t>
+  </si>
+  <si>
+    <t>The fire hydrant is used for firefighting purposes in case of emergencies.</t>
+  </si>
+  <si>
+    <t>The property owner or the landlord is responsible for the maintenance of the bathroom.</t>
+  </si>
+  <si>
+    <t>Green</t>
+  </si>
+  <si>
+    <t>The giraffes are walking on the dirt road to find food and water.</t>
+  </si>
+  <si>
+    <t>The man is wearing a white shirt and a green tie.</t>
+  </si>
+  <si>
+    <t>The horns on the cow's head are a natural part of its anatomy and serve various purposes, such as defense, mating, and social interactions.</t>
   </si>
   <si>
     <t>5</t>
   </si>
   <si>
-    <t>A man</t>
-  </si>
-  <si>
-    <t>Yes</t>
-  </si>
-  <si>
-    <t>The police officers are patrolling the area and maintaining public safety.</t>
-  </si>
-  <si>
-    <t>Green</t>
+    <t>A tennis racket</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>The sink and toilet are fixtures in a bathroom for personal hygiene and sanitation.</t>
+  </si>
+  <si>
+    <t>The clock on the building serves as a timekeeping device for the public.</t>
+  </si>
+  <si>
+    <t>The image shows two young boys playing in a park, with one boy holding a frisbee.</t>
+  </si>
+  <si>
+    <t>Carrot</t>
+  </si>
+  <si>
+    <t>The giraffes are in the wild.</t>
+  </si>
+  <si>
+    <t>A hat, sunglasses, and a tie.</t>
+  </si>
+  <si>
+    <t>The train is moving.</t>
+  </si>
+  <si>
+    <t>Purple</t>
+  </si>
+  <si>
+    <t>12:15</t>
   </si>
   <si>
     <t>The giraffes in the image are a mother and her two babies.</t>
   </si>
   <si>
-    <t>Reason:</t>
-  </si>
-  <si>
-    <t>A tennis racket</t>
-  </si>
-  <si>
     <t>The rope barrier is used to separate the area where the men are playing the video game from the rest of the room.</t>
   </si>
   <si>
-    <t>The horns on the cow's head are a natural part of its anatomy and serve various purposes, such as defense, mating, and social interactions.</t>
-  </si>
-  <si>
-    <t>A red shirt and a hat.</t>
-  </si>
-  <si>
-    <t>A toothbrush</t>
-  </si>
-  <si>
-    <t>The sink and toilet are fixtures in a bathroom for personal hygiene and sanitation.</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>The umbrellas on the beach are used to provide shade and protection from the sun for beachgoers.</t>
-  </si>
-  <si>
-    <t>The train is moving.</t>
-  </si>
-  <si>
-    <t>The train is stationary.</t>
-  </si>
-  <si>
-    <t>Rice and fish</t>
-  </si>
-  <si>
-    <t>To prevent unauthorized access to the exhibit.</t>
-  </si>
-  <si>
-    <t>The two men are posing with pizza to celebrate a special occasion or simply to enjoy a meal together.</t>
-  </si>
-  <si>
-    <t>There are 10 steps in the image.</t>
+    <t>Ski poles</t>
   </si>
   <si>
     <t>The dish on the plate is a Mexican meal consisting of rice, beans, and meat.</t>
@@ -542,154 +770,259 @@
     <t>The cow has two horns.</t>
   </si>
   <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>The property owner or the landlord is responsible for the maintenance of the bathroom.</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>Boy</t>
-  </si>
-  <si>
-    <t>The giraffes are walking on the dirt road to find food and water.</t>
+    <t>The dish is made of chicken and broccoli.</t>
+  </si>
+  <si>
+    <t>A vest, tie, and glasses.</t>
+  </si>
+  <si>
+    <t>The traffic lights in the image are hanging from a wire and displaying different colored lights, which are used to control and manage the flow of traffic at the Lion Gate Bridge and Stapley Park.</t>
   </si>
   <si>
     <t>The horns on the yak's head are a natural adaptation that helps the animal to defend itself from predators and establish dominance within the herd.</t>
   </si>
   <si>
-    <t>The man is wearing a white shirt and a green tie.</t>
-  </si>
-  <si>
     <t>The train in the image is a passenger train, designed to transport people from one location to another.</t>
   </si>
   <si>
-    <t>3</t>
+    <t>The traffic lights are designed to manage the movement of vehicles and pedestrians by providing clear signals for when it is safe to proceed or when it is necessary to stop or slow down. By hanging from a wire, they can be easily seen by drivers and pedestrians, ensuring that everyone can follow the rules and maintain safety on the road.</t>
+  </si>
+  <si>
+    <t>The man is wearing a black jacket and black pants while snowboarding.</t>
+  </si>
+  <si>
+    <t>The path is made of dirt, as it is a narrow trail surrounded by trees and bushes.</t>
+  </si>
+  <si>
+    <t>The image shows three police officers on horseback, which is a common practice for law enforcement in some areas. Riding horses provides the officers with a higher vantage point, allowing them to see and be seen by the public, and also enables them to navigate through crowded areas more easily than in a car. Additionally, horses can be more environmentally friendly and less disruptive to traffic compared to motorized vehicles.</t>
+  </si>
+  <si>
+    <t>The image shows several police officers on horseback, indicating that they are patrolling the area on horseback.</t>
+  </si>
+  <si>
+    <t>The image shows a man riding a motorcycle, wearing a helmet and white boots.</t>
+  </si>
+  <si>
+    <t>The image shows a stove with three pots, one containing rice and another containing fish. The presence of a spoon in the fish pot suggests that it is being prepared.</t>
+  </si>
+  <si>
+    <t>The toilet paper holder is mounted on the wall, providing easy access to toilet paper for users.</t>
+  </si>
+  <si>
+    <t>The boy is eating pizza with himself.</t>
+  </si>
+  <si>
+    <t>The image shows a man and a child playing with a frisbee, which is a common outdoor activity.</t>
+  </si>
+  <si>
+    <t>The girls are wearing jackets, which suggests that the weather is likely cold or rainy.</t>
+  </si>
+  <si>
+    <t>The men are holding Wii remotes and are engaged in a video game, as evidenced by their focused expressions and the fact that they are standing in front of a TV.</t>
+  </si>
+  <si>
+    <t>There is a single potted plant in the image.</t>
+  </si>
+  <si>
+    <t>The men are smiling and posing with two pizzas, which suggests that they are sharing a joyful moment or commemorating a special event. It could be a birthday, a work celebration, or just a casual gathering with friends. The presence of pizza as the centerpiece of the image indicates that it is a social and enjoyable occasion.</t>
+  </si>
+  <si>
+    <t>The two men are wearing ties and smiling, which suggests that they are proud parents of the baby.</t>
+  </si>
+  <si>
+    <t>The boy is brushing his teeth while standing next to a yellow bicycle.</t>
+  </si>
+  <si>
+    <t>The elephant is engaging in a playful activity, which is common among elephants. They use their trunks to interact with objects in their environment, and in this case, the elephant is using the stick to play and have fun.</t>
+  </si>
+  <si>
+    <t>The woman is wearing a red shirt and a hat while sitting in a chair.</t>
+  </si>
+  <si>
+    <t>The rope barrier is a common security measure used in museums and exhibitions to keep visitors at a safe distance from the displayed items and to prevent any potential damage or theft.</t>
+  </si>
+  <si>
+    <t>The image shows a table with a variety of vegetables, including tomatoes, carrots, and broccoli, among others. The exact number cannot be determined, but it is clear that there are multiple vegetables present.</t>
+  </si>
+  <si>
+    <t>The bus is a church bus, which is typically used to transport members of the congregation to and from church events, such as worship services, Bible studies, and community outreach programs.</t>
+  </si>
+  <si>
+    <t>The woman is holding a tennis racket in her hand, which is a piece of sports equipment used for playing tennis.</t>
+  </si>
+  <si>
+    <t>The umbrellas are placed on the beach to offer a comfortable and shaded area for people to relax and enjoy their time by the water. They help to protect individuals from the sun's harmful UV rays, reducing the risk of sunburn and other sun-related health issues.</t>
+  </si>
+  <si>
+    <t>The person is skiing down a snowy mountain, enjoying the thrill and excitement of the activity.</t>
+  </si>
+  <si>
+    <t>The train is parked on the tracks, and there is no indication of motion in the image.</t>
+  </si>
+  <si>
+    <t>The motorcycle has two wheels, one in front and one in the back.</t>
+  </si>
+  <si>
+    <t>The man is wearing protective gear while skateboarding, which indicates that he is engaging in a potentially risky activity.</t>
+  </si>
+  <si>
+    <t>There are four slices of pizza on the plate.</t>
+  </si>
+  <si>
+    <t>There are two people playing tennis in the image, a woman and a man.</t>
+  </si>
+  <si>
+    <t>The woman is wearing a blue hat while sitting in the chair.</t>
+  </si>
+  <si>
+    <t>The train is green in color.</t>
+  </si>
+  <si>
+    <t>The beakers are typically used in scientific experiments and research to hold and measure small volumes of liquids. They are essential tools in a laboratory setting for various purposes such as mixing, heating, cooling, and conducting experiments. The presence of multiple beakers in the image suggests that the people in the lab are engaged in a collaborative effort to conduct experiments or research.</t>
+  </si>
+  <si>
+    <t>The plate contains beans, rice, and a cheesy dish, making a total of 3 different types of food.</t>
+  </si>
+  <si>
+    <t>The meal is well prepared and has a variety of ingredients, including chicken, broccoli, and an orange. The presentation and taste suggest that a professional chef has prepared the dish.</t>
+  </si>
+  <si>
+    <t>The image shows a man sitting on the steps, and the number of steps is clearly visible.</t>
+  </si>
+  <si>
+    <t>The man is dressed in a cowboy outfit, which includes a hat, sunglasses, and a tie.</t>
+  </si>
+  <si>
+    <t>The fire hydrant is a crucial component of urban infrastructure, providing a readily available source of water for firefighters to combat fires and protect lives and property. Its presence in front of the Chicago Police car indicates that the area is well-maintained and prepared for emergencies.</t>
+  </si>
+  <si>
+    <t>The bathroom appears to be in a state of disrepair, with a broken sink and peeling paint. This suggests that the property owner or the landlord has not been maintaining the bathroom properly, which is their responsibility.</t>
+  </si>
+  <si>
+    <t>The umbrella the girls are holding is green.</t>
+  </si>
+  <si>
+    <t>In the image, the giraffes are seen walking on a dirt road, which is a common habitat for them. They usually walk long distances in search of food and water sources. The presence of trees in the background also suggests that the area might have vegetation that the giraffes can feed on.</t>
+  </si>
+  <si>
+    <t>There are two pizzas on the table, one is a large pizza and the other is a small pizza.</t>
+  </si>
+  <si>
+    <t>The man is sitting on the steps and is wearing a white shirt and a green tie, which are visible in the image.</t>
+  </si>
+  <si>
+    <t>The train is a blue and white locomotive, as seen in the image.</t>
+  </si>
+  <si>
+    <t>The horns on the cow's head are a unique feature that sets it apart from other animals. They are made of keratin, the same protein that makes up human hair and nails. The horns can be used for defense against predators, as well as for mating and social interactions within the herd. Additionally, the size and shape of the horns can vary among individuals and can be influenced by genetics and environmental factors.</t>
+  </si>
+  <si>
+    <t>There are five traffic lights hanging from the wire.</t>
+  </si>
+  <si>
+    <t>The image shows a vase filled with 10 different colored roses, making it a beautiful and colorful arrangement.</t>
   </si>
   <si>
     <t>The image contains a person, a cat, a laptop, a cell phone, and a cup.</t>
   </si>
   <si>
-    <t>The image shows a man riding a motorcycle, wearing a helmet and white boots.</t>
-  </si>
-  <si>
-    <t>The men are holding Wii remotes and are engaged in a video game, as evidenced by their focused expressions and the fact that they are standing in front of a TV.</t>
-  </si>
-  <si>
-    <t>The image shows three police officers on horseback, which is a common practice for law enforcement in some areas. Riding horses provides the officers with a higher vantage point, allowing them to see and be seen by the public, and also enables them to navigate through crowded areas more easily than in a car. Additionally, horses can be more environmentally friendly and less disruptive to traffic compared to motorized vehicles.</t>
-  </si>
-  <si>
-    <t>The umbrella the girls are holding is green.</t>
+    <t>There is only one elephant in the water.</t>
+  </si>
+  <si>
+    <t>The man is wearing a tie, which is a common accessory for formal or professional attire.</t>
+  </si>
+  <si>
+    <t>There is only one "Chicago Police" vehicle parked on the street.</t>
+  </si>
+  <si>
+    <t>The sink is used for washing hands, brushing teeth, and other personal care tasks, while the toilet is used for disposing of waste. Both fixtures are essential components of a bathroom to maintain cleanliness and hygiene.</t>
+  </si>
+  <si>
+    <t>The clock is mounted on the side of the building, making it visible to people in the surrounding area. This allows passersby to easily check the time without needing to rely on personal timekeeping devices, such as watches or smartphones. Additionally, the clock may have historical or architectural significance, adding to the aesthetic appeal of the building.</t>
+  </si>
+  <si>
+    <t>The image depicts a casual, outdoor setting where the boys are enjoying their time together, engaging in a fun activity like playing with a frisbee.</t>
+  </si>
+  <si>
+    <t>The image features a variety of vegetables, but the most prominent one is the carrot, which is found in multiple locations and is the most common vegetable in the scene.</t>
+  </si>
+  <si>
+    <t>The image shows a row of 10 wooden tables on the beach, providing a place for people to sit and enjoy the view.</t>
+  </si>
+  <si>
+    <t>The giraffes are standing in a grassy area with trees in the background, which is typical of their natural habitat. Additionally, there is no indication of a fence or enclosure, suggesting that they are in the wild.</t>
+  </si>
+  <si>
+    <t>There are three people in the image - a man and two women.</t>
+  </si>
+  <si>
+    <t>The train is described as traveling or moving, indicating that it is not stationary.</t>
+  </si>
+  <si>
+    <t>The vase is purple in color.</t>
+  </si>
+  <si>
+    <t>The man is wearing a helmet while skateboarding, which is a safety precaution to protect his head from potential injuries.</t>
+  </si>
+  <si>
+    <t>The clock has a blue face and gold hands, and the time is displayed as 12:15.</t>
   </si>
   <si>
     <t>The image shows a mother giraffe and her two babies walking together, indicating a close family bond. The presence of the mother and her offspring suggests that they are part of the same social group or herd.</t>
   </si>
   <si>
-    <t>The woman is holding a tennis racket in her hand, which is a piece of sports equipment used for playing tennis.</t>
+    <t>There are two people in the image, a boy and a man.</t>
   </si>
   <si>
     <t>The rope barrier serves as a safety measure to prevent accidental damage to the exhibit or the people in the room. It also helps to maintain a clear path for the players to move around without interfering with the ongoing activities.</t>
   </si>
   <si>
-    <t>The horns on the cow's head are a unique feature that sets it apart from other animals. They are made of keratin, the same protein that makes up human hair and nails. The horns can be used for defense against predators, as well as for mating and social interactions within the herd. Additionally, the size and shape of the horns can vary among individuals and can be influenced by genetics and environmental factors.</t>
-  </si>
-  <si>
-    <t>The woman is wearing a red shirt and a hat while sitting in a chair.</t>
-  </si>
-  <si>
-    <t>The boy is brushing his teeth while standing next to a yellow bicycle.</t>
-  </si>
-  <si>
-    <t>The sink is used for washing hands, brushing teeth, and other personal care tasks, while the toilet is used for disposing of waste. Both fixtures are essential components of a bathroom to maintain cleanliness and hygiene.</t>
-  </si>
-  <si>
-    <t>There are four slices of pizza on the plate.</t>
-  </si>
-  <si>
-    <t>The man is wearing a tie, which is a common accessory for formal or professional attire.</t>
-  </si>
-  <si>
-    <t>The umbrellas are placed on the beach to offer a comfortable and shaded area for people to relax and enjoy their time by the water. They help to protect individuals from the sun's harmful UV rays, reducing the risk of sunburn and other sun-related health issues.</t>
-  </si>
-  <si>
-    <t>The train is described as traveling or moving, indicating that it is not stationary.</t>
-  </si>
-  <si>
-    <t>The train is green in color.</t>
-  </si>
-  <si>
-    <t>The train is parked on the tracks, and there is no indication of motion in the image.</t>
-  </si>
-  <si>
-    <t>The image shows a stove with three pots, one containing rice and another containing fish. The presence of a spoon in the fish pot suggests that it is being prepared.</t>
-  </si>
-  <si>
-    <t>There are two pizzas on the table, one is a large pizza and the other is a small pizza.</t>
-  </si>
-  <si>
-    <t>The rope barrier is a common security measure used in museums and exhibitions to keep visitors at a safe distance from the displayed items and to prevent any potential damage or theft.</t>
-  </si>
-  <si>
-    <t>The image shows a man and a child playing with a frisbee, which is a common outdoor activity.</t>
-  </si>
-  <si>
-    <t>The image shows several police officers on horseback, indicating that they are patrolling the area on horseback.</t>
-  </si>
-  <si>
-    <t>The train is a blue and white locomotive, as seen in the image.</t>
-  </si>
-  <si>
-    <t>The men are smiling and posing with two pizzas, which suggests that they are sharing a joyful moment or commemorating a special event. It could be a birthday, a work celebration, or just a casual gathering with friends. The presence of pizza as the centerpiece of the image indicates that it is a social and enjoyable occasion.</t>
-  </si>
-  <si>
-    <t>The image shows a man sitting on the steps, and the number of steps is clearly visible.</t>
+    <t>The zebra is bending down to eat the grass, which is a natural behavior for herbivores like zebras.</t>
+  </si>
+  <si>
+    <t>The man is holding ski poles in his hands, which are used for balance and propulsion while skiing.</t>
+  </si>
+  <si>
+    <t>The beakers are an essential piece of laboratory equipment, used for various experiments and scientific research. They come in different sizes and shapes to accommodate different types of liquids and volumes, and are typically made of glass or plastic to ensure durability and accuracy in measurements.</t>
   </si>
   <si>
     <t>The plate contains a Mexican meal with rice, beans, and meat, which is a popular dish in Mexican cuisine.</t>
   </si>
   <si>
-    <t>The woman is wearing a blue hat while sitting in the chair.</t>
-  </si>
-  <si>
     <t>The boy is throwing a yellow frisbee in a grassy field.</t>
   </si>
   <si>
+    <t>The man is snowboarding down a hill, as evidenced by the presence of trees in the background and the fact that he is riding on a snowboard.</t>
+  </si>
+  <si>
     <t>The cow has two horns, one on each side of its head, which is a common characteristic of long-haired cattle.</t>
   </si>
   <si>
     <t>The boy is wearing a shirt, which is visible in the image.</t>
   </si>
   <si>
-    <t>The image shows a row of 10 wooden tables on the beach, providing a place for people to sit and enjoy the view.</t>
-  </si>
-  <si>
-    <t>The bathroom appears to be in a state of disrepair, with a broken sink and peeling paint. This suggests that the property owner or the landlord has not been maintaining the bathroom properly, which is their responsibility.</t>
-  </si>
-  <si>
-    <t>The motorcycle has two wheels, one in front and one in the back.</t>
-  </si>
-  <si>
-    <t>The boy is eating pizza with himself.</t>
-  </si>
-  <si>
-    <t>The girls are wearing jackets, which suggests that the weather is likely cold or rainy.</t>
-  </si>
-  <si>
-    <t>In the image, the giraffes are seen walking on a dirt road, which is a common habitat for them. They usually walk long distances in search of food and water sources. The presence of trees in the background also suggests that the area might have vegetation that the giraffes can feed on.</t>
+    <t>There are two buses parked in the lot, one is a green and yellow bus and the other is a white bus.</t>
+  </si>
+  <si>
+    <t>The dish is a combination of chicken and broccoli, which are both common ingredients in Asian cuisine. The chicken provides a source of protein, while the broccoli adds a nutritious vegetable component to the meal. The dish is likely seasoned with a sauce or spices to enhance the flavor and create a balanced taste.</t>
+  </si>
+  <si>
+    <t>The man is dressed in a vest, tie, and glasses, which suggests a formal or semi-formal attire.</t>
+  </si>
+  <si>
+    <t>The traffic lights help regulate the movement of vehicles and pedestrians, ensuring safety and order on the roads. They use different colored lights to indicate when it is safe to proceed, stop, or yield, depending on the specific traffic regulations in place at the location.</t>
   </si>
   <si>
     <t>Yaks have large, curved horns that are a distinctive feature of the species. These horns are not only aesthetically pleasing but also serve a practical purpose. They help the animal to fend off predators and establish dominance within the herd. The horns are also used in various cultural and religious practices in the regions where yaks are native.</t>
   </si>
   <si>
-    <t>The man is sitting on the steps and is wearing a white shirt and a green tie, which are visible in the image.</t>
-  </si>
-  <si>
     <t>The train is a silver and yellow passenger train with multiple windows, which indicates that it is designed for carrying passengers. The presence of multiple windows and the overall design of the train suggest that it is meant for transporting people rather than cargo or other purposes.</t>
   </si>
   <si>
-    <t>The plate contains beans, rice, and a cheesy dish, making a total of 3 different types of food.</t>
+    <t>The dish is a combination of chicken and broccoli, which are both visible in the image. The chicken appears to be covered in a sauce, and the broccoli is served on the side.</t>
+  </si>
+  <si>
+    <t>There are two cats sleeping on the bed, one on the left side and the other on the right side.</t>
   </si>
 </sst>
 </file>
@@ -1745,7 +2078,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L51"/>
+  <dimension ref="A1:L101"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1791,19 +2124,19 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>14</v>
+        <v>84</v>
       </c>
       <c r="I2" t="s">
         <v>75</v>
       </c>
       <c r="J2" t="s">
-        <v>95</v>
+        <v>118</v>
       </c>
       <c r="K2" t="s">
-        <v>131</v>
+        <v>181</v>
       </c>
       <c r="L2" t="s">
-        <v>163</v>
+        <v>235</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -1811,19 +2144,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>40</v>
+        <v>54</v>
       </c>
       <c r="I3" t="s">
         <v>76</v>
       </c>
       <c r="J3" t="s">
-        <v>96</v>
+        <v>119</v>
       </c>
       <c r="K3" t="s">
-        <v>132</v>
+        <v>182</v>
       </c>
       <c r="L3" t="s">
-        <v>164</v>
+        <v>236</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -1831,19 +2164,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>31</v>
+        <v>71</v>
       </c>
       <c r="I4" t="s">
         <v>77</v>
       </c>
       <c r="J4" t="s">
-        <v>97</v>
+        <v>120</v>
       </c>
       <c r="K4" t="s">
-        <v>133</v>
+        <v>183</v>
       </c>
       <c r="L4" t="s">
-        <v>165</v>
+        <v>237</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -1857,13 +2190,13 @@
         <v>78</v>
       </c>
       <c r="J5" t="s">
-        <v>98</v>
+        <v>121</v>
       </c>
       <c r="K5" t="s">
-        <v>134</v>
+        <v>184</v>
       </c>
       <c r="L5" t="s">
-        <v>166</v>
+        <v>238</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -1871,19 +2204,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>18</v>
+        <v>45</v>
       </c>
       <c r="I6" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="J6" t="s">
-        <v>99</v>
+        <v>122</v>
       </c>
       <c r="K6" t="s">
-        <v>135</v>
+        <v>185</v>
       </c>
       <c r="L6" t="s">
-        <v>167</v>
+        <v>239</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -1891,19 +2224,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="I7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="J7" t="s">
-        <v>100</v>
+        <v>123</v>
       </c>
       <c r="K7" t="s">
-        <v>136</v>
+        <v>186</v>
       </c>
       <c r="L7" t="s">
-        <v>168</v>
+        <v>240</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -1911,19 +2244,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="I8" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J8" t="s">
-        <v>101</v>
+        <v>124</v>
       </c>
       <c r="K8" t="s">
-        <v>137</v>
+        <v>187</v>
       </c>
       <c r="L8" t="s">
-        <v>169</v>
+        <v>241</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -1931,19 +2264,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>26</v>
+        <v>81</v>
       </c>
       <c r="I9" t="s">
         <v>81</v>
       </c>
       <c r="J9" t="s">
-        <v>102</v>
+        <v>125</v>
       </c>
       <c r="K9" t="s">
-        <v>138</v>
+        <v>188</v>
       </c>
       <c r="L9" t="s">
-        <v>169</v>
+        <v>242</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -1951,19 +2284,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>33</v>
+        <v>11</v>
       </c>
       <c r="I10" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="J10" t="s">
-        <v>103</v>
+        <v>126</v>
       </c>
       <c r="K10" t="s">
-        <v>139</v>
+        <v>189</v>
       </c>
       <c r="L10" t="s">
-        <v>170</v>
+        <v>243</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -1971,19 +2304,19 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="I11" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="J11" t="s">
-        <v>104</v>
+        <v>127</v>
       </c>
       <c r="K11" t="s">
-        <v>140</v>
+        <v>185</v>
       </c>
       <c r="L11" t="s">
-        <v>171</v>
+        <v>244</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -1991,19 +2324,19 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="I12" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="J12" t="s">
-        <v>105</v>
+        <v>128</v>
       </c>
       <c r="K12" t="s">
-        <v>141</v>
+        <v>185</v>
       </c>
       <c r="L12" t="s">
-        <v>172</v>
+        <v>245</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -2011,19 +2344,19 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>5</v>
+        <v>31</v>
       </c>
       <c r="I13" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="J13" t="s">
-        <v>106</v>
+        <v>129</v>
       </c>
       <c r="K13" t="s">
-        <v>142</v>
+        <v>185</v>
       </c>
       <c r="L13" t="s">
-        <v>173</v>
+        <v>246</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -2031,19 +2364,19 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>38</v>
+        <v>74</v>
       </c>
       <c r="I14" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="J14" t="s">
-        <v>107</v>
+        <v>130</v>
       </c>
       <c r="K14" t="s">
-        <v>143</v>
+        <v>190</v>
       </c>
       <c r="L14" t="s">
-        <v>174</v>
+        <v>247</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -2051,19 +2384,19 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>9</v>
+        <v>34</v>
       </c>
       <c r="I15" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="J15" t="s">
-        <v>108</v>
+        <v>131</v>
       </c>
       <c r="K15" t="s">
-        <v>144</v>
+        <v>191</v>
       </c>
       <c r="L15" t="s">
-        <v>175</v>
+        <v>248</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -2071,19 +2404,19 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>4</v>
+        <v>91</v>
       </c>
       <c r="I16" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="J16" t="s">
-        <v>106</v>
+        <v>125</v>
       </c>
       <c r="K16" t="s">
-        <v>142</v>
+        <v>188</v>
       </c>
       <c r="L16" t="s">
-        <v>173</v>
+        <v>249</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -2091,19 +2424,19 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="I17" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="J17" t="s">
-        <v>109</v>
+        <v>132</v>
       </c>
       <c r="K17" t="s">
-        <v>133</v>
+        <v>192</v>
       </c>
       <c r="L17" t="s">
-        <v>176</v>
+        <v>250</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -2111,19 +2444,19 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>42</v>
+        <v>77</v>
       </c>
       <c r="I18" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="J18" t="s">
-        <v>110</v>
+        <v>133</v>
       </c>
       <c r="K18" t="s">
-        <v>145</v>
+        <v>193</v>
       </c>
       <c r="L18" t="s">
-        <v>177</v>
+        <v>251</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -2131,19 +2464,19 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>47</v>
+        <v>78</v>
       </c>
       <c r="I19" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="J19" t="s">
-        <v>111</v>
+        <v>133</v>
       </c>
       <c r="K19" t="s">
-        <v>146</v>
+        <v>193</v>
       </c>
       <c r="L19" t="s">
-        <v>178</v>
+        <v>251</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -2151,19 +2484,19 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>48</v>
+        <v>13</v>
       </c>
       <c r="I20" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="J20" t="s">
-        <v>101</v>
+        <v>134</v>
       </c>
       <c r="K20" t="s">
-        <v>137</v>
+        <v>194</v>
       </c>
       <c r="L20" t="s">
-        <v>179</v>
+        <v>252</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -2171,19 +2504,19 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="I21" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="J21" t="s">
-        <v>111</v>
+        <v>135</v>
       </c>
       <c r="K21" t="s">
-        <v>147</v>
+        <v>195</v>
       </c>
       <c r="L21" t="s">
-        <v>180</v>
+        <v>253</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -2191,19 +2524,19 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>10</v>
+        <v>56</v>
       </c>
       <c r="I22" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="J22" t="s">
-        <v>108</v>
+        <v>125</v>
       </c>
       <c r="K22" t="s">
-        <v>144</v>
+        <v>188</v>
       </c>
       <c r="L22" t="s">
-        <v>175</v>
+        <v>254</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -2211,19 +2544,19 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>17</v>
+        <v>89</v>
       </c>
       <c r="I23" t="s">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="J23" t="s">
-        <v>99</v>
+        <v>136</v>
       </c>
       <c r="K23" t="s">
-        <v>135</v>
+        <v>196</v>
       </c>
       <c r="L23" t="s">
-        <v>167</v>
+        <v>255</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -2231,19 +2564,19 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="I24" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="J24" t="s">
-        <v>112</v>
+        <v>125</v>
       </c>
       <c r="K24" t="s">
-        <v>148</v>
+        <v>188</v>
       </c>
       <c r="L24" t="s">
-        <v>181</v>
+        <v>256</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -2251,19 +2584,19 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="I25" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="J25" t="s">
-        <v>101</v>
+        <v>137</v>
       </c>
       <c r="K25" t="s">
-        <v>137</v>
+        <v>197</v>
       </c>
       <c r="L25" t="s">
-        <v>182</v>
+        <v>257</v>
       </c>
     </row>
     <row r="26" spans="1:12">
@@ -2271,19 +2604,19 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>32</v>
+        <v>70</v>
       </c>
       <c r="I26" t="s">
-        <v>77</v>
+        <v>96</v>
       </c>
       <c r="J26" t="s">
-        <v>103</v>
+        <v>138</v>
       </c>
       <c r="K26" t="s">
-        <v>149</v>
+        <v>198</v>
       </c>
       <c r="L26" t="s">
-        <v>183</v>
+        <v>258</v>
       </c>
     </row>
     <row r="27" spans="1:12">
@@ -2291,19 +2624,19 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="I27" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="J27" t="s">
-        <v>113</v>
+        <v>139</v>
       </c>
       <c r="K27" t="s">
-        <v>133</v>
+        <v>199</v>
       </c>
       <c r="L27" t="s">
-        <v>184</v>
+        <v>259</v>
       </c>
     </row>
     <row r="28" spans="1:12">
@@ -2311,19 +2644,19 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="I28" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="J28" t="s">
-        <v>114</v>
+        <v>140</v>
       </c>
       <c r="K28" t="s">
-        <v>133</v>
+        <v>200</v>
       </c>
       <c r="L28" t="s">
-        <v>185</v>
+        <v>260</v>
       </c>
     </row>
     <row r="29" spans="1:12">
@@ -2331,19 +2664,19 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>28</v>
+        <v>97</v>
       </c>
       <c r="I29" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="J29" t="s">
-        <v>101</v>
+        <v>141</v>
       </c>
       <c r="K29" t="s">
-        <v>137</v>
+        <v>201</v>
       </c>
       <c r="L29" t="s">
-        <v>186</v>
+        <v>261</v>
       </c>
     </row>
     <row r="30" spans="1:12">
@@ -2351,19 +2684,19 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>34</v>
+        <v>10</v>
       </c>
       <c r="I30" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="J30" t="s">
-        <v>115</v>
+        <v>142</v>
       </c>
       <c r="K30" t="s">
-        <v>150</v>
+        <v>202</v>
       </c>
       <c r="L30" t="s">
-        <v>187</v>
+        <v>262</v>
       </c>
     </row>
     <row r="31" spans="1:12">
@@ -2371,19 +2704,19 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>6</v>
+        <v>73</v>
       </c>
       <c r="I31" t="s">
-        <v>86</v>
+        <v>99</v>
       </c>
       <c r="J31" t="s">
-        <v>116</v>
+        <v>125</v>
       </c>
       <c r="K31" t="s">
-        <v>151</v>
+        <v>188</v>
       </c>
       <c r="L31" t="s">
-        <v>188</v>
+        <v>263</v>
       </c>
     </row>
     <row r="32" spans="1:12">
@@ -2391,19 +2724,19 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="I32" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="J32" t="s">
-        <v>117</v>
+        <v>143</v>
       </c>
       <c r="K32" t="s">
-        <v>152</v>
+        <v>185</v>
       </c>
       <c r="L32" t="s">
-        <v>189</v>
+        <v>264</v>
       </c>
     </row>
     <row r="33" spans="1:12">
@@ -2411,19 +2744,19 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>12</v>
+        <v>48</v>
       </c>
       <c r="I33" t="s">
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="J33" t="s">
-        <v>118</v>
+        <v>125</v>
       </c>
       <c r="K33" t="s">
-        <v>133</v>
+        <v>188</v>
       </c>
       <c r="L33" t="s">
-        <v>190</v>
+        <v>265</v>
       </c>
     </row>
     <row r="34" spans="1:12">
@@ -2431,19 +2764,19 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>37</v>
+        <v>86</v>
       </c>
       <c r="I34" t="s">
-        <v>84</v>
+        <v>101</v>
       </c>
       <c r="J34" t="s">
-        <v>107</v>
+        <v>144</v>
       </c>
       <c r="K34" t="s">
-        <v>143</v>
+        <v>203</v>
       </c>
       <c r="L34" t="s">
-        <v>174</v>
+        <v>266</v>
       </c>
     </row>
     <row r="35" spans="1:12">
@@ -2451,19 +2784,19 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>2</v>
+        <v>29</v>
       </c>
       <c r="I35" t="s">
-        <v>92</v>
+        <v>102</v>
       </c>
       <c r="J35" t="s">
-        <v>101</v>
+        <v>145</v>
       </c>
       <c r="K35" t="s">
-        <v>137</v>
+        <v>204</v>
       </c>
       <c r="L35" t="s">
-        <v>191</v>
+        <v>267</v>
       </c>
     </row>
     <row r="36" spans="1:12">
@@ -2471,19 +2804,19 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>22</v>
+        <v>94</v>
       </c>
       <c r="I36" t="s">
-        <v>82</v>
+        <v>103</v>
       </c>
       <c r="J36" t="s">
-        <v>119</v>
+        <v>146</v>
       </c>
       <c r="K36" t="s">
-        <v>153</v>
+        <v>205</v>
       </c>
       <c r="L36" t="s">
-        <v>192</v>
+        <v>268</v>
       </c>
     </row>
     <row r="37" spans="1:12">
@@ -2491,19 +2824,19 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I37" t="s">
-        <v>83</v>
+        <v>104</v>
       </c>
       <c r="J37" t="s">
-        <v>120</v>
+        <v>147</v>
       </c>
       <c r="K37" t="s">
-        <v>133</v>
+        <v>206</v>
       </c>
       <c r="L37" t="s">
-        <v>193</v>
+        <v>269</v>
       </c>
     </row>
     <row r="38" spans="1:12">
@@ -2511,19 +2844,19 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>44</v>
+        <v>67</v>
       </c>
       <c r="I38" t="s">
-        <v>87</v>
+        <v>105</v>
       </c>
       <c r="J38" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="K38" t="s">
-        <v>154</v>
+        <v>188</v>
       </c>
       <c r="L38" t="s">
-        <v>194</v>
+        <v>270</v>
       </c>
     </row>
     <row r="39" spans="1:12">
@@ -2531,19 +2864,19 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>36</v>
+        <v>66</v>
       </c>
       <c r="I39" t="s">
-        <v>84</v>
+        <v>106</v>
       </c>
       <c r="J39" t="s">
-        <v>122</v>
+        <v>148</v>
       </c>
       <c r="K39" t="s">
-        <v>155</v>
+        <v>207</v>
       </c>
       <c r="L39" t="s">
-        <v>195</v>
+        <v>271</v>
       </c>
     </row>
     <row r="40" spans="1:12">
@@ -2551,19 +2884,19 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="I40" t="s">
-        <v>90</v>
+        <v>107</v>
       </c>
       <c r="J40" t="s">
-        <v>112</v>
+        <v>149</v>
       </c>
       <c r="K40" t="s">
-        <v>148</v>
+        <v>208</v>
       </c>
       <c r="L40" t="s">
-        <v>181</v>
+        <v>272</v>
       </c>
     </row>
     <row r="41" spans="1:12">
@@ -2571,19 +2904,19 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>41</v>
+        <v>17</v>
       </c>
       <c r="I41" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="J41" t="s">
-        <v>123</v>
+        <v>150</v>
       </c>
       <c r="K41" t="s">
-        <v>156</v>
+        <v>209</v>
       </c>
       <c r="L41" t="s">
-        <v>196</v>
+        <v>273</v>
       </c>
     </row>
     <row r="42" spans="1:12">
@@ -2591,19 +2924,19 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>11</v>
+        <v>50</v>
       </c>
       <c r="I42" t="s">
-        <v>85</v>
+        <v>108</v>
       </c>
       <c r="J42" t="s">
-        <v>124</v>
+        <v>151</v>
       </c>
       <c r="K42" t="s">
-        <v>157</v>
+        <v>210</v>
       </c>
       <c r="L42" t="s">
-        <v>197</v>
+        <v>274</v>
       </c>
     </row>
     <row r="43" spans="1:12">
@@ -2611,19 +2944,19 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="I43" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="J43" t="s">
-        <v>112</v>
+        <v>125</v>
       </c>
       <c r="K43" t="s">
-        <v>148</v>
+        <v>188</v>
       </c>
       <c r="L43" t="s">
-        <v>181</v>
+        <v>275</v>
       </c>
     </row>
     <row r="44" spans="1:12">
@@ -2631,19 +2964,19 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="I44" t="s">
-        <v>79</v>
+        <v>104</v>
       </c>
       <c r="J44" t="s">
-        <v>125</v>
+        <v>141</v>
       </c>
       <c r="K44" t="s">
-        <v>133</v>
+        <v>211</v>
       </c>
       <c r="L44" t="s">
-        <v>198</v>
+        <v>276</v>
       </c>
     </row>
     <row r="45" spans="1:12">
@@ -2651,19 +2984,19 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>50</v>
+        <v>96</v>
       </c>
       <c r="I45" t="s">
-        <v>80</v>
+        <v>98</v>
       </c>
       <c r="J45" t="s">
-        <v>126</v>
+        <v>141</v>
       </c>
       <c r="K45" t="s">
-        <v>158</v>
+        <v>201</v>
       </c>
       <c r="L45" t="s">
-        <v>199</v>
+        <v>261</v>
       </c>
     </row>
     <row r="46" spans="1:12">
@@ -2671,19 +3004,19 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="I46" t="s">
-        <v>82</v>
+        <v>109</v>
       </c>
       <c r="J46" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="K46" t="s">
-        <v>159</v>
+        <v>188</v>
       </c>
       <c r="L46" t="s">
-        <v>200</v>
+        <v>277</v>
       </c>
     </row>
     <row r="47" spans="1:12">
@@ -2691,19 +3024,19 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="I47" t="s">
-        <v>86</v>
+        <v>110</v>
       </c>
       <c r="J47" t="s">
-        <v>128</v>
+        <v>152</v>
       </c>
       <c r="K47" t="s">
-        <v>160</v>
+        <v>212</v>
       </c>
       <c r="L47" t="s">
-        <v>201</v>
+        <v>278</v>
       </c>
     </row>
     <row r="48" spans="1:12">
@@ -2711,19 +3044,19 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>43</v>
+        <v>82</v>
       </c>
       <c r="I48" t="s">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="J48" t="s">
-        <v>110</v>
+        <v>153</v>
       </c>
       <c r="K48" t="s">
-        <v>145</v>
+        <v>213</v>
       </c>
       <c r="L48" t="s">
-        <v>177</v>
+        <v>279</v>
       </c>
     </row>
     <row r="49" spans="1:12">
@@ -2731,19 +3064,19 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="I49" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="J49" t="s">
-        <v>129</v>
+        <v>154</v>
       </c>
       <c r="K49" t="s">
-        <v>161</v>
+        <v>214</v>
       </c>
       <c r="L49" t="s">
-        <v>202</v>
+        <v>256</v>
       </c>
     </row>
     <row r="50" spans="1:12">
@@ -2751,19 +3084,19 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>29</v>
+        <v>63</v>
       </c>
       <c r="I50" t="s">
-        <v>94</v>
+        <v>111</v>
       </c>
       <c r="J50" t="s">
-        <v>130</v>
+        <v>155</v>
       </c>
       <c r="K50" t="s">
-        <v>162</v>
+        <v>215</v>
       </c>
       <c r="L50" t="s">
-        <v>203</v>
+        <v>280</v>
       </c>
     </row>
     <row r="51" spans="1:12">
@@ -2771,19 +3104,1019 @@
         <v>49</v>
       </c>
       <c r="B51">
+        <v>14</v>
+      </c>
+      <c r="I51" t="s">
+        <v>91</v>
+      </c>
+      <c r="J51" t="s">
+        <v>156</v>
+      </c>
+      <c r="K51" t="s">
+        <v>213</v>
+      </c>
+      <c r="L51" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12">
+      <c r="A52" s="1">
+        <v>50</v>
+      </c>
+      <c r="B52">
+        <v>25</v>
+      </c>
+      <c r="I52" t="s">
+        <v>80</v>
+      </c>
+      <c r="J52" t="s">
+        <v>124</v>
+      </c>
+      <c r="K52" t="s">
+        <v>187</v>
+      </c>
+      <c r="L52" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12">
+      <c r="A53" s="1">
+        <v>51</v>
+      </c>
+      <c r="B53">
+        <v>4</v>
+      </c>
+      <c r="I53" t="s">
+        <v>89</v>
+      </c>
+      <c r="J53" t="s">
+        <v>132</v>
+      </c>
+      <c r="K53" t="s">
+        <v>192</v>
+      </c>
+      <c r="L53" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12">
+      <c r="A54" s="1">
+        <v>52</v>
+      </c>
+      <c r="B54">
+        <v>18</v>
+      </c>
+      <c r="I54" t="s">
+        <v>84</v>
+      </c>
+      <c r="J54" t="s">
+        <v>150</v>
+      </c>
+      <c r="K54" t="s">
+        <v>209</v>
+      </c>
+      <c r="L54" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12">
+      <c r="A55" s="1">
+        <v>53</v>
+      </c>
+      <c r="B55">
         <v>39</v>
       </c>
-      <c r="I51" t="s">
+      <c r="I55" t="s">
+        <v>79</v>
+      </c>
+      <c r="J55" t="s">
+        <v>123</v>
+      </c>
+      <c r="K55" t="s">
+        <v>186</v>
+      </c>
+      <c r="L55" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12">
+      <c r="A56" s="1">
+        <v>54</v>
+      </c>
+      <c r="B56">
+        <v>9</v>
+      </c>
+      <c r="I56" t="s">
+        <v>82</v>
+      </c>
+      <c r="J56" t="s">
+        <v>142</v>
+      </c>
+      <c r="K56" t="s">
+        <v>202</v>
+      </c>
+      <c r="L56" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12">
+      <c r="A57" s="1">
+        <v>55</v>
+      </c>
+      <c r="B57">
+        <v>79</v>
+      </c>
+      <c r="I57" t="s">
+        <v>90</v>
+      </c>
+      <c r="J57" t="s">
+        <v>157</v>
+      </c>
+      <c r="K57" t="s">
+        <v>190</v>
+      </c>
+      <c r="L57" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12">
+      <c r="A58" s="1">
+        <v>56</v>
+      </c>
+      <c r="B58">
+        <v>7</v>
+      </c>
+      <c r="I58" t="s">
+        <v>104</v>
+      </c>
+      <c r="J58" t="s">
+        <v>158</v>
+      </c>
+      <c r="K58" t="s">
+        <v>185</v>
+      </c>
+      <c r="L58" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12">
+      <c r="A59" s="1">
+        <v>57</v>
+      </c>
+      <c r="B59">
+        <v>65</v>
+      </c>
+      <c r="I59" t="s">
+        <v>106</v>
+      </c>
+      <c r="J59" t="s">
+        <v>159</v>
+      </c>
+      <c r="K59" t="s">
+        <v>190</v>
+      </c>
+      <c r="L59" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12">
+      <c r="A60" s="1">
+        <v>58</v>
+      </c>
+      <c r="B60">
+        <v>37</v>
+      </c>
+      <c r="I60" t="s">
+        <v>107</v>
+      </c>
+      <c r="J60" t="s">
+        <v>160</v>
+      </c>
+      <c r="K60" t="s">
+        <v>216</v>
+      </c>
+      <c r="L60" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12">
+      <c r="A61" s="1">
+        <v>59</v>
+      </c>
+      <c r="B61">
+        <v>90</v>
+      </c>
+      <c r="I61" t="s">
+        <v>93</v>
+      </c>
+      <c r="J61" t="s">
+        <v>125</v>
+      </c>
+      <c r="K61" t="s">
+        <v>188</v>
+      </c>
+      <c r="L61" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12">
+      <c r="A62" s="1">
+        <v>60</v>
+      </c>
+      <c r="B62">
+        <v>57</v>
+      </c>
+      <c r="I62" t="s">
+        <v>112</v>
+      </c>
+      <c r="J62" t="s">
+        <v>161</v>
+      </c>
+      <c r="K62" t="s">
+        <v>217</v>
+      </c>
+      <c r="L62" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12">
+      <c r="A63" s="1">
+        <v>61</v>
+      </c>
+      <c r="B63">
+        <v>100</v>
+      </c>
+      <c r="I63" t="s">
+        <v>113</v>
+      </c>
+      <c r="J63" t="s">
+        <v>162</v>
+      </c>
+      <c r="K63" t="s">
+        <v>218</v>
+      </c>
+      <c r="L63" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12">
+      <c r="A64" s="1">
+        <v>62</v>
+      </c>
+      <c r="B64">
+        <v>55</v>
+      </c>
+      <c r="I64" t="s">
+        <v>92</v>
+      </c>
+      <c r="J64" t="s">
+        <v>163</v>
+      </c>
+      <c r="K64" t="s">
+        <v>219</v>
+      </c>
+      <c r="L64" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12">
+      <c r="A65" s="1">
+        <v>63</v>
+      </c>
+      <c r="B65">
+        <v>44</v>
+      </c>
+      <c r="I65" t="s">
+        <v>95</v>
+      </c>
+      <c r="J65" t="s">
+        <v>164</v>
+      </c>
+      <c r="K65" t="s">
+        <v>215</v>
+      </c>
+      <c r="L65" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12">
+      <c r="A66" s="1">
+        <v>64</v>
+      </c>
+      <c r="B66">
+        <v>51</v>
+      </c>
+      <c r="I66" t="s">
+        <v>108</v>
+      </c>
+      <c r="J66" t="s">
+        <v>165</v>
+      </c>
+      <c r="K66" t="s">
+        <v>220</v>
+      </c>
+      <c r="L66" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12">
+      <c r="A67" s="1">
+        <v>65</v>
+      </c>
+      <c r="B67">
+        <v>68</v>
+      </c>
+      <c r="I67" t="s">
+        <v>105</v>
+      </c>
+      <c r="J67" t="s">
+        <v>141</v>
+      </c>
+      <c r="K67" t="s">
+        <v>221</v>
+      </c>
+      <c r="L67" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="68" spans="1:12">
+      <c r="A68" s="1">
+        <v>66</v>
+      </c>
+      <c r="B68">
+        <v>47</v>
+      </c>
+      <c r="I68" t="s">
+        <v>100</v>
+      </c>
+      <c r="J68" t="s">
+        <v>139</v>
+      </c>
+      <c r="K68" t="s">
+        <v>222</v>
+      </c>
+      <c r="L68" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="69" spans="1:12">
+      <c r="A69" s="1">
+        <v>67</v>
+      </c>
+      <c r="B69">
+        <v>69</v>
+      </c>
+      <c r="I69" t="s">
+        <v>96</v>
+      </c>
+      <c r="J69" t="s">
+        <v>138</v>
+      </c>
+      <c r="K69" t="s">
+        <v>198</v>
+      </c>
+      <c r="L69" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="70" spans="1:12">
+      <c r="A70" s="1">
+        <v>68</v>
+      </c>
+      <c r="B70">
+        <v>62</v>
+      </c>
+      <c r="I70" t="s">
+        <v>111</v>
+      </c>
+      <c r="J70" t="s">
+        <v>166</v>
+      </c>
+      <c r="K70" t="s">
+        <v>223</v>
+      </c>
+      <c r="L70" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="71" spans="1:12">
+      <c r="A71" s="1">
+        <v>69</v>
+      </c>
+      <c r="B71">
+        <v>98</v>
+      </c>
+      <c r="I71" t="s">
+        <v>98</v>
+      </c>
+      <c r="J71" t="s">
+        <v>167</v>
+      </c>
+      <c r="K71" t="s">
+        <v>185</v>
+      </c>
+      <c r="L71" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="72" spans="1:12">
+      <c r="A72" s="1">
+        <v>70</v>
+      </c>
+      <c r="B72">
+        <v>80</v>
+      </c>
+      <c r="I72" t="s">
+        <v>81</v>
+      </c>
+      <c r="J72" t="s">
+        <v>168</v>
+      </c>
+      <c r="K72" t="s">
+        <v>185</v>
+      </c>
+      <c r="L72" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="73" spans="1:12">
+      <c r="A73" s="1">
+        <v>71</v>
+      </c>
+      <c r="B73">
+        <v>42</v>
+      </c>
+      <c r="I73" t="s">
+        <v>95</v>
+      </c>
+      <c r="J73" t="s">
+        <v>137</v>
+      </c>
+      <c r="K73" t="s">
+        <v>197</v>
+      </c>
+      <c r="L73" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="74" spans="1:12">
+      <c r="A74" s="1">
+        <v>72</v>
+      </c>
+      <c r="B74">
+        <v>59</v>
+      </c>
+      <c r="I74" t="s">
+        <v>112</v>
+      </c>
+      <c r="J74" t="s">
+        <v>169</v>
+      </c>
+      <c r="K74" t="s">
+        <v>224</v>
+      </c>
+      <c r="L74" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="75" spans="1:12">
+      <c r="A75" s="1">
+        <v>73</v>
+      </c>
+      <c r="B75">
+        <v>49</v>
+      </c>
+      <c r="I75" t="s">
+        <v>108</v>
+      </c>
+      <c r="J75" t="s">
+        <v>170</v>
+      </c>
+      <c r="K75" t="s">
+        <v>225</v>
+      </c>
+      <c r="L75" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="76" spans="1:12">
+      <c r="A76" s="1">
+        <v>74</v>
+      </c>
+      <c r="B76">
+        <v>99</v>
+      </c>
+      <c r="I76" t="s">
+        <v>113</v>
+      </c>
+      <c r="J76" t="s">
+        <v>171</v>
+      </c>
+      <c r="K76" t="s">
+        <v>200</v>
+      </c>
+      <c r="L76" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="77" spans="1:12">
+      <c r="A77" s="1">
+        <v>75</v>
+      </c>
+      <c r="B77">
+        <v>58</v>
+      </c>
+      <c r="I77" t="s">
+        <v>112</v>
+      </c>
+      <c r="J77" t="s">
+        <v>161</v>
+      </c>
+      <c r="K77" t="s">
+        <v>217</v>
+      </c>
+      <c r="L77" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="78" spans="1:12">
+      <c r="A78" s="1">
         <v>76</v>
       </c>
-      <c r="J51" t="s">
+      <c r="B78">
+        <v>76</v>
+      </c>
+      <c r="I78" t="s">
+        <v>86</v>
+      </c>
+      <c r="J78" t="s">
+        <v>130</v>
+      </c>
+      <c r="K78" t="s">
+        <v>190</v>
+      </c>
+      <c r="L78" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="79" spans="1:12">
+      <c r="A79" s="1">
+        <v>77</v>
+      </c>
+      <c r="B79">
+        <v>33</v>
+      </c>
+      <c r="I79" t="s">
+        <v>85</v>
+      </c>
+      <c r="J79" t="s">
+        <v>135</v>
+      </c>
+      <c r="K79" t="s">
+        <v>226</v>
+      </c>
+      <c r="L79" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="80" spans="1:12">
+      <c r="A80" s="1">
+        <v>78</v>
+      </c>
+      <c r="B80">
+        <v>95</v>
+      </c>
+      <c r="I80" t="s">
+        <v>114</v>
+      </c>
+      <c r="J80" t="s">
+        <v>125</v>
+      </c>
+      <c r="K80" t="s">
+        <v>188</v>
+      </c>
+      <c r="L80" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="81" spans="1:12">
+      <c r="A81" s="1">
+        <v>79</v>
+      </c>
+      <c r="B81">
+        <v>60</v>
+      </c>
+      <c r="I81" t="s">
+        <v>115</v>
+      </c>
+      <c r="J81" t="s">
+        <v>172</v>
+      </c>
+      <c r="K81" t="s">
+        <v>227</v>
+      </c>
+      <c r="L81" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="82" spans="1:12">
+      <c r="A82" s="1">
+        <v>80</v>
+      </c>
+      <c r="B82">
+        <v>64</v>
+      </c>
+      <c r="I82" t="s">
+        <v>111</v>
+      </c>
+      <c r="J82" t="s">
+        <v>166</v>
+      </c>
+      <c r="K82" t="s">
+        <v>223</v>
+      </c>
+      <c r="L82" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="83" spans="1:12">
+      <c r="A83" s="1">
+        <v>81</v>
+      </c>
+      <c r="B83">
+        <v>85</v>
+      </c>
+      <c r="I83" t="s">
+        <v>101</v>
+      </c>
+      <c r="J83" t="s">
+        <v>144</v>
+      </c>
+      <c r="K83" t="s">
+        <v>203</v>
+      </c>
+      <c r="L83" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="84" spans="1:12">
+      <c r="A84" s="1">
+        <v>82</v>
+      </c>
+      <c r="B84">
+        <v>38</v>
+      </c>
+      <c r="I84" t="s">
+        <v>107</v>
+      </c>
+      <c r="J84" t="s">
+        <v>160</v>
+      </c>
+      <c r="K84" t="s">
+        <v>216</v>
+      </c>
+      <c r="L84" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="85" spans="1:12">
+      <c r="A85" s="1">
+        <v>83</v>
+      </c>
+      <c r="B85">
+        <v>30</v>
+      </c>
+      <c r="I85" t="s">
+        <v>102</v>
+      </c>
+      <c r="J85" t="s">
+        <v>173</v>
+      </c>
+      <c r="K85" t="s">
+        <v>228</v>
+      </c>
+      <c r="L85" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="86" spans="1:12">
+      <c r="A86" s="1">
+        <v>84</v>
+      </c>
+      <c r="B86">
+        <v>2</v>
+      </c>
+      <c r="I86" t="s">
+        <v>83</v>
+      </c>
+      <c r="J86" t="s">
+        <v>125</v>
+      </c>
+      <c r="K86" t="s">
+        <v>188</v>
+      </c>
+      <c r="L86" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="87" spans="1:12">
+      <c r="A87" s="1">
+        <v>85</v>
+      </c>
+      <c r="B87">
+        <v>53</v>
+      </c>
+      <c r="I87" t="s">
+        <v>76</v>
+      </c>
+      <c r="J87" t="s">
+        <v>125</v>
+      </c>
+      <c r="K87" t="s">
+        <v>188</v>
+      </c>
+      <c r="L87" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="88" spans="1:12">
+      <c r="A88" s="1">
+        <v>86</v>
+      </c>
+      <c r="B88">
+        <v>22</v>
+      </c>
+      <c r="I88" t="s">
+        <v>110</v>
+      </c>
+      <c r="J88" t="s">
+        <v>174</v>
+      </c>
+      <c r="K88" t="s">
+        <v>229</v>
+      </c>
+      <c r="L88" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="89" spans="1:12">
+      <c r="A89" s="1">
+        <v>87</v>
+      </c>
+      <c r="B89">
+        <v>3</v>
+      </c>
+      <c r="I89" t="s">
+        <v>89</v>
+      </c>
+      <c r="J89" t="s">
+        <v>175</v>
+      </c>
+      <c r="K89" t="s">
+        <v>185</v>
+      </c>
+      <c r="L89" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="90" spans="1:12">
+      <c r="A90" s="1">
+        <v>88</v>
+      </c>
+      <c r="B90">
+        <v>24</v>
+      </c>
+      <c r="I90" t="s">
+        <v>80</v>
+      </c>
+      <c r="J90" t="s">
+        <v>124</v>
+      </c>
+      <c r="K90" t="s">
+        <v>187</v>
+      </c>
+      <c r="L90" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="91" spans="1:12">
+      <c r="A91" s="1">
+        <v>89</v>
+      </c>
+      <c r="B91">
+        <v>88</v>
+      </c>
+      <c r="I91" t="s">
+        <v>116</v>
+      </c>
+      <c r="J91" t="s">
+        <v>176</v>
+      </c>
+      <c r="K91" t="s">
+        <v>200</v>
+      </c>
+      <c r="L91" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="92" spans="1:12">
+      <c r="A92" s="1">
+        <v>90</v>
+      </c>
+      <c r="B92">
+        <v>92</v>
+      </c>
+      <c r="I92" t="s">
+        <v>103</v>
+      </c>
+      <c r="J92" t="s">
+        <v>177</v>
+      </c>
+      <c r="K92" t="s">
+        <v>230</v>
+      </c>
+      <c r="L92" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="93" spans="1:12">
+      <c r="A93" s="1">
+        <v>91</v>
+      </c>
+      <c r="B93">
+        <v>75</v>
+      </c>
+      <c r="I93" t="s">
+        <v>86</v>
+      </c>
+      <c r="J93" t="s">
+        <v>141</v>
+      </c>
+      <c r="K93" t="s">
+        <v>231</v>
+      </c>
+      <c r="L93" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="94" spans="1:12">
+      <c r="A94" s="1">
+        <v>92</v>
+      </c>
+      <c r="B94">
+        <v>87</v>
+      </c>
+      <c r="I94" t="s">
+        <v>116</v>
+      </c>
+      <c r="J94" t="s">
+        <v>125</v>
+      </c>
+      <c r="K94" t="s">
+        <v>188</v>
+      </c>
+      <c r="L94" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="95" spans="1:12">
+      <c r="A95" s="1">
+        <v>93</v>
+      </c>
+      <c r="B95">
+        <v>83</v>
+      </c>
+      <c r="I95" t="s">
+        <v>75</v>
+      </c>
+      <c r="J95" t="s">
+        <v>118</v>
+      </c>
+      <c r="K95" t="s">
+        <v>232</v>
+      </c>
+      <c r="L95" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="96" spans="1:12">
+      <c r="A96" s="1">
+        <v>94</v>
+      </c>
+      <c r="B96">
+        <v>21</v>
+      </c>
+      <c r="I96" t="s">
+        <v>110</v>
+      </c>
+      <c r="J96" t="s">
+        <v>178</v>
+      </c>
+      <c r="K96" t="s">
+        <v>233</v>
+      </c>
+      <c r="L96" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="97" spans="1:12">
+      <c r="A97" s="1">
+        <v>95</v>
+      </c>
+      <c r="B97">
+        <v>61</v>
+      </c>
+      <c r="I97" t="s">
+        <v>115</v>
+      </c>
+      <c r="J97" t="s">
+        <v>125</v>
+      </c>
+      <c r="K97" t="s">
+        <v>188</v>
+      </c>
+      <c r="L97" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="98" spans="1:12">
+      <c r="A98" s="1">
         <v>96</v>
       </c>
-      <c r="K51" t="s">
-        <v>132</v>
-      </c>
-      <c r="L51" t="s">
-        <v>164</v>
+      <c r="B98">
+        <v>72</v>
+      </c>
+      <c r="I98" t="s">
+        <v>77</v>
+      </c>
+      <c r="J98" t="s">
+        <v>120</v>
+      </c>
+      <c r="K98" t="s">
+        <v>183</v>
+      </c>
+      <c r="L98" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="99" spans="1:12">
+      <c r="A99" s="1">
+        <v>97</v>
+      </c>
+      <c r="B99">
+        <v>15</v>
+      </c>
+      <c r="I99" t="s">
+        <v>97</v>
+      </c>
+      <c r="J99" t="s">
+        <v>179</v>
+      </c>
+      <c r="K99" t="s">
+        <v>234</v>
+      </c>
+      <c r="L99" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="100" spans="1:12">
+      <c r="A100" s="1">
+        <v>98</v>
+      </c>
+      <c r="B100">
+        <v>93</v>
+      </c>
+      <c r="I100" t="s">
+        <v>103</v>
+      </c>
+      <c r="J100" t="s">
+        <v>177</v>
+      </c>
+      <c r="K100" t="s">
+        <v>230</v>
+      </c>
+      <c r="L100" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="101" spans="1:12">
+      <c r="A101" s="1">
+        <v>99</v>
+      </c>
+      <c r="B101">
+        <v>52</v>
+      </c>
+      <c r="I101" t="s">
+        <v>117</v>
+      </c>
+      <c r="J101" t="s">
+        <v>180</v>
+      </c>
+      <c r="K101" t="s">
+        <v>200</v>
+      </c>
+      <c r="L101" t="s">
+        <v>314</v>
       </c>
     </row>
   </sheetData>
